--- a/NPR Covid Page Ranks.xlsx
+++ b/NPR Covid Page Ranks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Desktop\Fall 2021\4250 web search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{770AD51B-0A6B-409D-A1A6-A7D2E9A29A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3A52DA-BEAB-4169-BEFA-D732C7F11C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{542BE1B9-4F4F-41F0-AE33-844E388E86C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <si>
     <t>https://www.npr.org/sections/coronavirus-live-updates/</t>
   </si>
@@ -1534,9 +1534,6 @@
   </si>
   <si>
     <t>https://www.npr.org/2021/08/16/1028345074/covid-booster-shots-eight-months-biden#mainContent</t>
-  </si>
-  <si>
-    <t>sum of page ranks</t>
   </si>
 </sst>
 </file>
@@ -1891,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFED5A5-E557-4A20-9C23-01129BD67253}">
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1903,30 +1900,23 @@
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B1">
         <v>4.38015795791626E-2</v>
       </c>
-      <c r="C1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B2">
         <v>1.90082795265159E-2</v>
       </c>
-      <c r="C2">
-        <f>SUM(B:B)</f>
-        <v>0.89371226232886147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1934,7 +1924,7 @@
         <v>1.6524416124464699E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -1942,7 +1932,7 @@
         <v>1.6096916788922801E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>281</v>
       </c>
@@ -1950,7 +1940,7 @@
         <v>1.00618006262618E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1958,7 +1948,7 @@
         <v>9.6173107471876108E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -1966,7 +1956,7 @@
         <v>8.7752017950391108E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1974,7 +1964,7 @@
         <v>7.9050092125426998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
@@ -1982,7 +1972,7 @@
         <v>7.6444538487996996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -1990,7 +1980,7 @@
         <v>6.9950823830836799E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1998,7 +1988,7 @@
         <v>6.39167305708295E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -2006,7 +1996,7 @@
         <v>6.1580509985255999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>193</v>
       </c>
@@ -2014,7 +2004,7 @@
         <v>5.8141115486418397E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -2022,7 +2012,7 @@
         <v>5.6372483096967302E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>495</v>
       </c>
@@ -2030,7 +2020,7 @@
         <v>5.3636977809393598E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>

--- a/NPR Covid Page Ranks.xlsx
+++ b/NPR Covid Page Ranks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Desktop\Fall 2021\4250 web search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3A52DA-BEAB-4169-BEFA-D732C7F11C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7261B7AE-B480-4492-91E9-5EAA345EB1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{542BE1B9-4F4F-41F0-AE33-844E388E86C9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
   <si>
     <t>https://www.npr.org/sections/coronavirus-live-updates/</t>
   </si>
@@ -1534,6 +1534,9 @@
   </si>
   <si>
     <t>https://www.npr.org/2021/08/16/1028345074/covid-booster-shots-eight-months-biden#mainContent</t>
+  </si>
+  <si>
+    <t>sum of page ranks</t>
   </si>
 </sst>
 </file>
@@ -1888,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFED5A5-E557-4A20-9C23-01129BD67253}">
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1900,23 +1903,30 @@
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B1">
         <v>4.38015795791626E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B2">
         <v>1.90082795265159E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <f>SUM(B:B)</f>
+        <v>0.89371226232886147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1924,7 +1934,7 @@
         <v>1.6524416124464699E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -1932,7 +1942,7 @@
         <v>1.6096916788922801E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>281</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>1.00618006262618E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>9.6173107471876108E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -1956,7 +1966,7 @@
         <v>8.7752017950391108E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1964,7 +1974,7 @@
         <v>7.9050092125426998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
@@ -1972,7 +1982,7 @@
         <v>7.6444538487996996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -1980,7 +1990,7 @@
         <v>6.9950823830836799E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1988,7 +1998,7 @@
         <v>6.39167305708295E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -1996,7 +2006,7 @@
         <v>6.1580509985255999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>193</v>
       </c>
@@ -2004,7 +2014,7 @@
         <v>5.8141115486418397E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -2012,7 +2022,7 @@
         <v>5.6372483096967302E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>495</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>5.3636977809393598E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>114</v>
       </c>
